--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/training/training_act15d0_01_a.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/training/training_act15d0_01_a.xlsx
@@ -58,7 +58,7 @@
 </t>
   </si>
   <si>
-    <t>[PopupDialog(dialogHead="$avatar_silent")]When the enemy &lt;@tu.kw&gt;attacks&lt;/&gt; during the “Imprisoned” state, the it consumes the power of the shackles.</t>
+    <t>[PopupDialog(dialogHead="$avatar_silent")]When the enemy &lt;@tu.kw&gt;attacks&lt;/&gt; during the 'Imprisoned' state, the it consumes the power of the shackles.</t>
   </si>
   <si>
     <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_silent")]감옥의 죄수는 몸에 지닌 '구속 단말기' 때문에 공격 능력에 제한을 받아.
